--- a/LabIACD_2324_GroupEvaluation_TPXYZ_GroupXYZ.xlsx
+++ b/LabIACD_2324_GroupEvaluation_TPXYZ_GroupXYZ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A940996-9D68-48E3-95A1-73321BE0D889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8075478-5BA9-40C8-AA3E-BCBC85435009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>XYZ</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">PyLidc features extraction, </t>
+  </si>
+  <si>
+    <t>PyRadiomics Features extractions, Random Forest model parameters hypertuning, Neural Networks model parameters hypertuning</t>
   </si>
 </sst>
 </file>
@@ -444,18 +447,18 @@
   <dimension ref="D3:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="32.77734375" customWidth="1"/>
-    <col min="6" max="6" width="32.5546875" customWidth="1"/>
-    <col min="7" max="7" width="41.21875" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" customWidth="1"/>
+    <col min="7" max="7" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
@@ -463,7 +466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="4:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
@@ -471,7 +474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="4:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
@@ -485,7 +488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
@@ -493,15 +496,17 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:7" ht="60" x14ac:dyDescent="0.25">
       <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
@@ -509,7 +514,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
@@ -519,7 +524,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>

--- a/LabIACD_2324_GroupEvaluation_TPXYZ_GroupXYZ.xlsx
+++ b/LabIACD_2324_GroupEvaluation_TPXYZ_GroupXYZ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8075478-5BA9-40C8-AA3E-BCBC85435009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054A76F2-0612-4557-8FC0-4F28C33A06E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>XYZ</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>PyRadiomics Features extractions, Random Forest model parameters hypertuning, Neural Networks model parameters hypertuning</t>
+  </si>
+  <si>
+    <t>Custom k-fold CV and "train-test-split" functions to train and test the models where each fold/set has all the annotations of a patient, maintaing the proportions of the target class; XGBoost model parameters hypertunning; Development of CNN-based model</t>
   </si>
 </sst>
 </file>
@@ -447,18 +450,18 @@
   <dimension ref="D3:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" customWidth="1"/>
-    <col min="6" max="6" width="36.5703125" customWidth="1"/>
-    <col min="7" max="7" width="41.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="5" max="5" width="32.7265625" customWidth="1"/>
+    <col min="6" max="6" width="42.26953125" customWidth="1"/>
+    <col min="7" max="7" width="41.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
@@ -466,7 +469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
@@ -474,7 +477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="4:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
@@ -488,15 +491,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="4:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:7" ht="87" x14ac:dyDescent="0.35">
       <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="4:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:7" ht="58" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
@@ -506,7 +511,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="4:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:7" ht="29" x14ac:dyDescent="0.35">
       <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
@@ -514,7 +519,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="4:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:7" ht="29" x14ac:dyDescent="0.35">
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
@@ -524,7 +529,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>

--- a/LabIACD_2324_GroupEvaluation_TPXYZ_GroupXYZ.xlsx
+++ b/LabIACD_2324_GroupEvaluation_TPXYZ_GroupXYZ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054A76F2-0612-4557-8FC0-4F28C33A06E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21216730-ED23-46D4-8C42-CC25B4B68E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -85,10 +85,10 @@
     <t xml:space="preserve">PyLidc features extraction, </t>
   </si>
   <si>
-    <t>PyRadiomics Features extractions, Random Forest model parameters hypertuning, Neural Networks model parameters hypertuning</t>
-  </si>
-  <si>
     <t>Custom k-fold CV and "train-test-split" functions to train and test the models where each fold/set has all the annotations of a patient, maintaing the proportions of the target class; XGBoost model parameters hypertunning; Development of CNN-based model</t>
+  </si>
+  <si>
+    <t>PyRadiomics Features extractions; Random Forest model parameters hypertuning; Neural Networks model parameters hypertuning; Jupyter Notebooks assembly and explanation</t>
   </si>
 </sst>
 </file>
@@ -449,19 +449,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D3:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.81640625" customWidth="1"/>
-    <col min="5" max="5" width="32.7265625" customWidth="1"/>
-    <col min="6" max="6" width="42.26953125" customWidth="1"/>
-    <col min="7" max="7" width="41.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
+    <col min="6" max="6" width="42.28515625" customWidth="1"/>
+    <col min="7" max="7" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:7" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
@@ -469,7 +469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="4:7" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
@@ -477,7 +477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="4:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
@@ -491,27 +491,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="4:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="7" spans="4:7" ht="105" x14ac:dyDescent="0.25">
       <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="4:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="4:7" ht="75" x14ac:dyDescent="0.25">
       <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="4:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
@@ -519,7 +519,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="4:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="4:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
@@ -529,7 +529,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>

--- a/LabIACD_2324_GroupEvaluation_TPXYZ_GroupXYZ.xlsx
+++ b/LabIACD_2324_GroupEvaluation_TPXYZ_GroupXYZ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21216730-ED23-46D4-8C42-CC25B4B68E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5476CF3-C15B-45AC-981B-24BCF272CE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>XYZ</t>
   </si>
@@ -82,13 +82,19 @@
     <t>Inês Cardoso 202107268</t>
   </si>
   <si>
-    <t xml:space="preserve">PyLidc features extraction, </t>
-  </si>
-  <si>
-    <t>Custom k-fold CV and "train-test-split" functions to train and test the models where each fold/set has all the annotations of a patient, maintaing the proportions of the target class; XGBoost model parameters hypertunning; Development of CNN-based model</t>
-  </si>
-  <si>
-    <t>PyRadiomics Features extractions; Random Forest model parameters hypertuning; Neural Networks model parameters hypertuning; Jupyter Notebooks assembly and explanation</t>
+    <t>PyRadiomics Features extraction; Random Forest and Neural Networks parameters hypertuning; Jupyter Notebooks assembly, comments and explanation.</t>
+  </si>
+  <si>
+    <t>Legal and Ethics document; XGBoost parameters hypertuning; Video presentation.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Custom k-fold CV, "train-test-split" functions and PCA implementation; XGBoost parameters hypertunning; Model statistical analysis/comparison.</t>
+  </si>
+  <si>
+    <t>PyLidc features extraction; Data exploration, cleaning and transformation; Video presentation.</t>
   </si>
 </sst>
 </file>
@@ -155,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -165,6 +171,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -447,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D3:G11"/>
+  <dimension ref="D3:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,49 +500,61 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="4:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:7" ht="60" x14ac:dyDescent="0.25">
       <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="5">
+        <v>0.25</v>
+      </c>
       <c r="F7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="4:7" ht="75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" ht="60" x14ac:dyDescent="0.25">
       <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="5">
+        <v>0.25</v>
+      </c>
       <c r="F8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="4:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="4:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E9" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" ht="45" x14ac:dyDescent="0.25">
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="5">
+        <v>0.25</v>
+      </c>
       <c r="F10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LabIACD_2324_GroupEvaluation_TPXYZ_GroupXYZ.xlsx
+++ b/LabIACD_2324_GroupEvaluation_TPXYZ_GroupXYZ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5476CF3-C15B-45AC-981B-24BCF272CE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA63959-AB59-47EA-AAC0-A8EB27FD0CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,18 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
-  <si>
-    <t>XYZ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Group</t>
   </si>
   <si>
     <t>TP</t>
-  </si>
-  <si>
-    <t>1 or 2</t>
   </si>
   <si>
     <t>Student</t>
@@ -82,19 +76,19 @@
     <t>Inês Cardoso 202107268</t>
   </si>
   <si>
-    <t>PyRadiomics Features extraction; Random Forest and Neural Networks parameters hypertuning; Jupyter Notebooks assembly, comments and explanation.</t>
-  </si>
-  <si>
     <t>Legal and Ethics document; XGBoost parameters hypertuning; Video presentation.</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>Custom k-fold CV, "train-test-split" functions and PCA implementation; XGBoost parameters hypertunning; Model statistical analysis/comparison.</t>
-  </si>
-  <si>
     <t>PyLidc features extraction; Data exploration, cleaning and transformation; Video presentation.</t>
+  </si>
+  <si>
+    <t>Custom k-fold CV, "train-test-split" functions and PCA implementation; XGBoost parameters hypertunning; Model statistical analysis/comparison implementation.</t>
+  </si>
+  <si>
+    <t>PyRadiomics Features extraction; Random Forest and Neural Networks parameters hypertuning; Jupyter Notebooks assembly and markdown/comments; all code documentation.</t>
   </si>
 </sst>
 </file>
@@ -161,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -169,12 +163,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D3:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,90 +469,100 @@
     <col min="7" max="7" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D3" s="3" t="s">
+    <row r="3" spans="4:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D4" s="3" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="4:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="4:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="2" t="s">
+    </row>
+    <row r="7" spans="4:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="E7" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="4:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="D7" s="4" t="s">
+      <c r="E8" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E10" s="4">
         <v>0.25</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="D8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="4:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D9" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="4:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="D10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/LabIACD_2324_GroupEvaluation_TPXYZ_GroupXYZ.xlsx
+++ b/LabIACD_2324_GroupEvaluation_TPXYZ_GroupXYZ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA63959-AB59-47EA-AAC0-A8EB27FD0CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AFF6A6-E8C8-4602-AA4B-58291063608A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,13 +82,13 @@
     <t>-</t>
   </si>
   <si>
-    <t>PyLidc features extraction; Data exploration, cleaning and transformation; Video presentation.</t>
-  </si>
-  <si>
-    <t>Custom k-fold CV, "train-test-split" functions and PCA implementation; XGBoost parameters hypertunning; Model statistical analysis/comparison implementation.</t>
-  </si>
-  <si>
     <t>PyRadiomics Features extraction; Random Forest and Neural Networks parameters hypertuning; Jupyter Notebooks assembly and markdown/comments; all code documentation.</t>
+  </si>
+  <si>
+    <t>Custom k-fold CV, "train-test-split" functions and PCA implementation; XGBoost parameters hypertunning; Model statistical analysis/comparison implementation; Video scripts and edition.</t>
+  </si>
+  <si>
+    <t>PyLidc features extraction; Data exploration, cleaning and transformation; Video presentation and scripts.</t>
   </si>
 </sst>
 </file>
@@ -458,7 +458,7 @@
   <dimension ref="D3:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="4:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:7" ht="75" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
@@ -531,7 +531,7 @@
         <v>0.25</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>11</v>
@@ -559,7 +559,7 @@
         <v>0.25</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>11</v>
